--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.0749131495152</v>
+        <v>39.66867433333334</v>
       </c>
       <c r="H2">
-        <v>31.0749131495152</v>
+        <v>119.006023</v>
       </c>
       <c r="I2">
-        <v>0.1271467007244361</v>
+        <v>0.154574216411057</v>
       </c>
       <c r="J2">
-        <v>0.1271467007244361</v>
+        <v>0.1545742164110569</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.12736506899227</v>
+        <v>0.1206496666666667</v>
       </c>
       <c r="N2">
-        <v>1.12736506899227</v>
+        <v>0.361949</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.05526797905384378</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.05526797905384379</v>
       </c>
       <c r="Q2">
-        <v>35.03277160673201</v>
+        <v>4.786012335425222</v>
       </c>
       <c r="R2">
-        <v>35.03277160673201</v>
+        <v>43.074111018827</v>
       </c>
       <c r="S2">
-        <v>0.1271467007244361</v>
+        <v>0.008543004554870611</v>
       </c>
       <c r="T2">
-        <v>0.1271467007244361</v>
+        <v>0.008543004554870611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>57.3664868297807</v>
+        <v>39.66867433333334</v>
       </c>
       <c r="H3">
-        <v>57.3664868297807</v>
+        <v>119.006023</v>
       </c>
       <c r="I3">
-        <v>0.2347217994613196</v>
+        <v>0.154574216411057</v>
       </c>
       <c r="J3">
-        <v>0.2347217994613196</v>
+        <v>0.1545742164110569</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.12736506899227</v>
+        <v>0.1465633333333334</v>
       </c>
       <c r="N3">
-        <v>1.12736506899227</v>
+        <v>0.43969</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.06713867895804264</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.06713867895804264</v>
       </c>
       <c r="Q3">
-        <v>64.67297338269987</v>
+        <v>5.813973139207778</v>
       </c>
       <c r="R3">
-        <v>64.67297338269987</v>
+        <v>52.32575825287</v>
       </c>
       <c r="S3">
-        <v>0.2347217994613196</v>
+        <v>0.01037790869081296</v>
       </c>
       <c r="T3">
-        <v>0.2347217994613196</v>
+        <v>0.01037790869081296</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,57 +655,57 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.7378119114083</v>
+        <v>39.66867433333334</v>
       </c>
       <c r="H4">
-        <v>61.7378119114083</v>
+        <v>119.006023</v>
       </c>
       <c r="I4">
-        <v>0.2526075956097666</v>
+        <v>0.154574216411057</v>
       </c>
       <c r="J4">
-        <v>0.2526075956097666</v>
+        <v>0.1545742164110569</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.12736506899227</v>
+        <v>1.915781</v>
       </c>
       <c r="N4">
-        <v>1.12736506899227</v>
+        <v>5.747343000000001</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.8775933419881136</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.8775933419881136</v>
       </c>
       <c r="Q4">
-        <v>69.60105258493661</v>
+        <v>75.99649258298768</v>
       </c>
       <c r="R4">
-        <v>69.60105258493661</v>
+        <v>683.968433246889</v>
       </c>
       <c r="S4">
-        <v>0.2526075956097666</v>
+        <v>0.1356533031653734</v>
       </c>
       <c r="T4">
-        <v>0.2526075956097666</v>
+        <v>0.1356533031653734</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,551 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>57.66057933333332</v>
+      </c>
+      <c r="H5">
+        <v>172.981738</v>
+      </c>
+      <c r="I5">
+        <v>0.2246820449144221</v>
+      </c>
+      <c r="J5">
+        <v>0.2246820449144221</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1206496666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.361949</v>
+      </c>
+      <c r="O5">
+        <v>0.05526797905384378</v>
+      </c>
+      <c r="P5">
+        <v>0.05526797905384379</v>
+      </c>
+      <c r="Q5">
+        <v>6.956729676373555</v>
+      </c>
+      <c r="R5">
+        <v>62.61056708736199</v>
+      </c>
+      <c r="S5">
+        <v>0.01241772255210507</v>
+      </c>
+      <c r="T5">
+        <v>0.01241772255210507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>57.66057933333332</v>
+      </c>
+      <c r="H6">
+        <v>172.981738</v>
+      </c>
+      <c r="I6">
+        <v>0.2246820449144221</v>
+      </c>
+      <c r="J6">
+        <v>0.2246820449144221</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.1465633333333334</v>
+      </c>
+      <c r="N6">
+        <v>0.43969</v>
+      </c>
+      <c r="O6">
+        <v>0.06713867895804264</v>
+      </c>
+      <c r="P6">
+        <v>0.06713867895804264</v>
+      </c>
+      <c r="Q6">
+        <v>8.450926709024444</v>
+      </c>
+      <c r="R6">
+        <v>76.05834038121999</v>
+      </c>
+      <c r="S6">
+        <v>0.0150848556811459</v>
+      </c>
+      <c r="T6">
+        <v>0.0150848556811459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>94.2228289995552</v>
-      </c>
-      <c r="H5">
-        <v>94.2228289995552</v>
-      </c>
-      <c r="I5">
-        <v>0.3855239042044777</v>
-      </c>
-      <c r="J5">
-        <v>0.3855239042044777</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.12736506899227</v>
-      </c>
-      <c r="N5">
-        <v>1.12736506899227</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>106.2235261157304</v>
-      </c>
-      <c r="R5">
-        <v>106.2235261157304</v>
-      </c>
-      <c r="S5">
-        <v>0.3855239042044777</v>
-      </c>
-      <c r="T5">
-        <v>0.3855239042044777</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>57.66057933333332</v>
+      </c>
+      <c r="H7">
+        <v>172.981738</v>
+      </c>
+      <c r="I7">
+        <v>0.2246820449144221</v>
+      </c>
+      <c r="J7">
+        <v>0.2246820449144221</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.915781</v>
+      </c>
+      <c r="N7">
+        <v>5.747343000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.8775933419881136</v>
+      </c>
+      <c r="P7">
+        <v>0.8775933419881136</v>
+      </c>
+      <c r="Q7">
+        <v>110.4650423357927</v>
+      </c>
+      <c r="R7">
+        <v>994.185381022134</v>
+      </c>
+      <c r="S7">
+        <v>0.1971794666811711</v>
+      </c>
+      <c r="T7">
+        <v>0.1971794666811711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>64.993678</v>
+      </c>
+      <c r="H8">
+        <v>194.981034</v>
+      </c>
+      <c r="I8">
+        <v>0.2532564301015895</v>
+      </c>
+      <c r="J8">
+        <v>0.2532564301015895</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1206496666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.361949</v>
+      </c>
+      <c r="O8">
+        <v>0.05526797905384378</v>
+      </c>
+      <c r="P8">
+        <v>0.05526797905384379</v>
+      </c>
+      <c r="Q8">
+        <v>7.841465586140667</v>
+      </c>
+      <c r="R8">
+        <v>70.57319027526601</v>
+      </c>
+      <c r="S8">
+        <v>0.0139969710741059</v>
+      </c>
+      <c r="T8">
+        <v>0.0139969710741059</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>64.993678</v>
+      </c>
+      <c r="H9">
+        <v>194.981034</v>
+      </c>
+      <c r="I9">
+        <v>0.2532564301015895</v>
+      </c>
+      <c r="J9">
+        <v>0.2532564301015895</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1465633333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.43969</v>
+      </c>
+      <c r="O9">
+        <v>0.06713867895804264</v>
+      </c>
+      <c r="P9">
+        <v>0.06713867895804264</v>
+      </c>
+      <c r="Q9">
+        <v>9.525690093273335</v>
+      </c>
+      <c r="R9">
+        <v>85.73121083946002</v>
+      </c>
+      <c r="S9">
+        <v>0.01700330215465058</v>
+      </c>
+      <c r="T9">
+        <v>0.01700330215465058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>64.993678</v>
+      </c>
+      <c r="H10">
+        <v>194.981034</v>
+      </c>
+      <c r="I10">
+        <v>0.2532564301015895</v>
+      </c>
+      <c r="J10">
+        <v>0.2532564301015895</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.915781</v>
+      </c>
+      <c r="N10">
+        <v>5.747343000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.8775933419881136</v>
+      </c>
+      <c r="P10">
+        <v>0.8775933419881136</v>
+      </c>
+      <c r="Q10">
+        <v>124.513653432518</v>
+      </c>
+      <c r="R10">
+        <v>1120.622880892662</v>
+      </c>
+      <c r="S10">
+        <v>0.222256156872833</v>
+      </c>
+      <c r="T10">
+        <v>0.222256156872833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>94.308965</v>
+      </c>
+      <c r="H11">
+        <v>282.926895</v>
+      </c>
+      <c r="I11">
+        <v>0.3674873085729315</v>
+      </c>
+      <c r="J11">
+        <v>0.3674873085729314</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1206496666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.361949</v>
+      </c>
+      <c r="O11">
+        <v>0.05526797905384378</v>
+      </c>
+      <c r="P11">
+        <v>0.05526797905384379</v>
+      </c>
+      <c r="Q11">
+        <v>11.37834519092833</v>
+      </c>
+      <c r="R11">
+        <v>102.405106718355</v>
+      </c>
+      <c r="S11">
+        <v>0.0203102808727622</v>
+      </c>
+      <c r="T11">
+        <v>0.0203102808727622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>94.308965</v>
+      </c>
+      <c r="H12">
+        <v>282.926895</v>
+      </c>
+      <c r="I12">
+        <v>0.3674873085729315</v>
+      </c>
+      <c r="J12">
+        <v>0.3674873085729314</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.1465633333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.43969</v>
+      </c>
+      <c r="O12">
+        <v>0.06713867895804264</v>
+      </c>
+      <c r="P12">
+        <v>0.06713867895804264</v>
+      </c>
+      <c r="Q12">
+        <v>13.82223627361667</v>
+      </c>
+      <c r="R12">
+        <v>124.40012646255</v>
+      </c>
+      <c r="S12">
+        <v>0.0246726124314332</v>
+      </c>
+      <c r="T12">
+        <v>0.02467261243143319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>94.308965</v>
+      </c>
+      <c r="H13">
+        <v>282.926895</v>
+      </c>
+      <c r="I13">
+        <v>0.3674873085729315</v>
+      </c>
+      <c r="J13">
+        <v>0.3674873085729314</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.915781</v>
+      </c>
+      <c r="N13">
+        <v>5.747343000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.8775933419881136</v>
+      </c>
+      <c r="P13">
+        <v>0.8775933419881136</v>
+      </c>
+      <c r="Q13">
+        <v>180.675323276665</v>
+      </c>
+      <c r="R13">
+        <v>1626.077909489985</v>
+      </c>
+      <c r="S13">
+        <v>0.3225044152687361</v>
+      </c>
+      <c r="T13">
+        <v>0.322504415268736</v>
       </c>
     </row>
   </sheetData>
